--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_49.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_49.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Momoko Shimizu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
